--- a/项目/中餐厅设备点检/煲仔饭烹饪设备报警信息以及点检V1.1.xlsx
+++ b/项目/中餐厅设备点检/煲仔饭烹饪设备报警信息以及点检V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="399">
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>2#</t>
     </r>
     <r>
@@ -48,13 +53,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左运行状态</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>_1.</t>
@@ -73,13 +82,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右运行状态</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>_1.</t>
@@ -101,13 +114,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -124,7 +141,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -143,13 +159,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -166,7 +186,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -188,13 +207,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -211,7 +234,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -230,13 +252,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -253,7 +279,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -275,13 +300,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -298,7 +327,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -317,13 +345,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -340,7 +372,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -362,13 +393,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -385,7 +420,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -404,13 +438,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -427,7 +465,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -449,13 +486,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -472,7 +513,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -491,13 +531,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -514,7 +558,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -536,13 +579,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -559,7 +606,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -578,13 +624,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -601,7 +651,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -623,13 +672,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -646,7 +699,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -665,13 +717,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -688,7 +744,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -710,13 +765,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -733,7 +792,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -752,13 +810,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -775,7 +837,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -797,13 +858,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -820,7 +885,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -839,13 +903,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -862,7 +930,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -884,13 +951,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -907,7 +978,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -926,13 +996,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -949,7 +1023,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -971,13 +1044,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -994,7 +1071,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1013,13 +1089,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1036,7 +1116,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1058,13 +1137,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1081,7 +1164,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1100,13 +1182,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1123,7 +1209,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1145,13 +1230,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1168,7 +1257,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1187,13 +1275,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1210,7 +1302,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1367,13 +1458,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>10</t>
@@ -1390,7 +1485,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1407,7 +1501,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1426,13 +1519,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>10</t>
@@ -1449,7 +1546,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1466,7 +1562,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1491,13 +1586,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>11</t>
@@ -1514,7 +1613,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1531,7 +1629,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1550,13 +1647,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>11</t>
@@ -1573,7 +1674,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1590,7 +1690,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1615,13 +1714,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>左煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>12</t>
@@ -1638,7 +1741,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1655,7 +1757,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1674,13 +1775,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>12</t>
@@ -1697,7 +1802,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1714,7 +1818,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1961,13 +2064,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -1984,7 +2091,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2009,13 +2115,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右下单数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2032,7 +2142,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2057,13 +2166,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右机械臂结构数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2080,7 +2193,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2105,13 +2217,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2128,7 +2244,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2153,13 +2268,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2176,7 +2295,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2201,13 +2319,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右下单数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2224,7 +2346,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2249,13 +2370,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2272,7 +2397,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2297,13 +2421,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2320,7 +2448,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2345,13 +2472,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2368,7 +2499,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2393,13 +2523,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2416,7 +2550,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2441,13 +2574,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2464,7 +2601,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2489,13 +2625,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右上盘机数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2512,7 +2652,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2537,13 +2676,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右料桥数据</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2560,7 +2703,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>.</t>
@@ -2597,6 +2739,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>D4183</t>
     </r>
     <r>
@@ -2610,6 +2757,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>D5183</t>
     </r>
     <r>
@@ -2629,6 +2781,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -2651,6 +2808,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve">1: </t>
     </r>
     <r>
@@ -2665,7 +2827,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>;2:</t>
@@ -2682,7 +2843,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>,3:</t>
@@ -2698,6 +2858,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -2781,13 +2946,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -2806,13 +2975,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -2831,13 +3004,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>3</t>
@@ -2856,13 +3033,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>4</t>
@@ -2881,13 +3062,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>5</t>
@@ -2906,13 +3091,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6</t>
@@ -2931,13 +3120,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>7</t>
@@ -2956,13 +3149,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>8</t>
@@ -2981,13 +3178,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>9</t>
@@ -3006,13 +3207,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>10</t>
@@ -3031,13 +3236,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>11</t>
@@ -3056,13 +3265,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>12</t>
@@ -3081,13 +3294,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>13</t>
@@ -3106,13 +3323,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>14</t>
@@ -3131,13 +3352,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>15</t>
@@ -3156,13 +3381,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>16</t>
@@ -3181,13 +3410,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>17</t>
@@ -3206,13 +3439,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>18</t>
@@ -3231,13 +3468,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>19</t>
@@ -3256,13 +3497,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>20</t>
@@ -3281,13 +3526,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>21</t>
@@ -3306,13 +3555,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>22</t>
@@ -3331,13 +3584,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>23</t>
@@ -3356,13 +3613,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>24</t>
@@ -3381,13 +3642,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -3406,13 +3671,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -3431,13 +3700,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>3</t>
@@ -3456,13 +3729,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>4</t>
@@ -3481,13 +3758,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>5</t>
@@ -3506,13 +3787,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6</t>
@@ -3531,13 +3816,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>7</t>
@@ -3556,13 +3845,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>8</t>
@@ -3581,13 +3874,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>9</t>
@@ -3606,13 +3903,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>10</t>
@@ -3631,13 +3932,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>11</t>
@@ -3656,13 +3961,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>12</t>
@@ -3681,13 +3990,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>13</t>
@@ -3706,13 +4019,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>14</t>
@@ -3731,13 +4048,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>15</t>
@@ -3756,13 +4077,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>16</t>
@@ -3781,13 +4106,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>17</t>
@@ -3806,13 +4135,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>18</t>
@@ -3831,13 +4164,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>19</t>
@@ -3856,13 +4193,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>20</t>
@@ -3881,13 +4222,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>21</t>
@@ -3906,13 +4251,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>22</t>
@@ -3931,13 +4280,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>23</t>
@@ -3956,13 +4309,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煲</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>24</t>
@@ -3985,16 +4342,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -4016,69 +4372,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4092,16 +4387,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4122,8 +4424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4137,9 +4440,46 @@
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4148,6 +4488,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4192,13 +4548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4210,37 +4560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4252,7 +4590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4270,79 +4608,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4355,6 +4657,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4392,6 +4748,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4407,17 +4792,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4452,40 +4831,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4493,143 +4849,143 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4646,16 +5002,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5051,8 +5403,8 @@
   <sheetPr/>
   <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
@@ -5143,7 +5495,7 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -5156,7 +5508,7 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -5171,7 +5523,7 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -5184,7 +5536,7 @@
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -5199,7 +5551,7 @@
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -5212,7 +5564,7 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -5227,7 +5579,7 @@
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -5240,7 +5592,7 @@
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -5255,7 +5607,7 @@
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -5268,7 +5620,7 @@
       <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -5311,7 +5663,7 @@
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -5324,7 +5676,7 @@
       <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -5802,10 +6154,10 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="9"/>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5832,10 +6184,10 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="9"/>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5843,7 +6195,7 @@
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -5854,18 +6206,18 @@
       <c r="F31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>130</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="9"/>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5873,7 +6225,7 @@
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -5884,7 +6236,7 @@
       <c r="F32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="5" t="s">
         <v>136</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -5892,10 +6244,10 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="9"/>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5903,7 +6255,7 @@
       <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="8" t="s">
         <v>140</v>
       </c>
@@ -5912,16 +6264,16 @@
       <c r="F33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="8" t="s">
         <v>141</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="9"/>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5929,7 +6281,7 @@
       <c r="A34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -5940,7 +6292,7 @@
       <c r="F34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H34" s="8" t="s">
@@ -6738,78 +7090,78 @@
       <c r="J68" s="3"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16" t="s">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="17" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6817,284 +7169,284 @@
       <c r="A77" s="6">
         <v>0</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="18" t="s">
         <v>285</v>
       </c>
       <c r="C77" s="8"/>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="6">
         <v>1</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="18" t="s">
         <v>287</v>
       </c>
       <c r="C78" s="8"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="6">
         <v>2</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="21" t="s">
         <v>288</v>
       </c>
       <c r="C79" s="8"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="6">
         <v>3</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="21" t="s">
         <v>289</v>
       </c>
       <c r="C80" s="8"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="6">
         <v>4</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C81" s="8"/>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="6">
         <v>5</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="21" t="s">
         <v>292</v>
       </c>
       <c r="C82" s="8"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="6">
         <v>6</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="21" t="s">
         <v>293</v>
       </c>
       <c r="C83" s="8"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="6">
         <v>7</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="21" t="s">
         <v>294</v>
       </c>
       <c r="C84" s="8"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="6">
         <v>8</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="21" t="s">
         <v>295</v>
       </c>
       <c r="C85" s="8"/>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="6">
         <v>9</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="6">
         <v>10</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C87" s="8"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="6">
         <v>11</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="18" t="s">
         <v>299</v>
       </c>
       <c r="C88" s="8"/>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="6">
         <v>12</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="21" t="s">
         <v>301</v>
       </c>
       <c r="C89" s="8"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="6">
         <v>13</v>
       </c>
-      <c r="B90" s="27"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="8"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="6">
         <v>14</v>
       </c>
-      <c r="B91" s="27"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="8"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="6">
         <v>15</v>
       </c>
-      <c r="B92" s="27"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="8"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29" t="s">
+      <c r="A98" s="24"/>
+      <c r="B98" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
@@ -7106,454 +7458,454 @@
       <c r="C99" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>303</v>
       </c>
       <c r="C100" t="s">
         <v>304</v>
       </c>
-      <c r="D100" s="31"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>305</v>
       </c>
       <c r="C101" t="s">
         <v>306</v>
       </c>
-      <c r="D101" s="31"/>
+      <c r="D101" s="27"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>307</v>
       </c>
       <c r="C102" t="s">
         <v>308</v>
       </c>
-      <c r="D102" s="31"/>
+      <c r="D102" s="27"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>309</v>
       </c>
       <c r="C103" t="s">
         <v>310</v>
       </c>
-      <c r="D103" s="31"/>
+      <c r="D103" s="27"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>311</v>
       </c>
       <c r="C104" t="s">
         <v>312</v>
       </c>
-      <c r="D104" s="31"/>
+      <c r="D104" s="27"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>313</v>
       </c>
       <c r="C105" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="31"/>
+      <c r="D105" s="27"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>315</v>
       </c>
       <c r="C106" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="31"/>
+      <c r="D106" s="27"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>317</v>
       </c>
       <c r="C107" t="s">
         <v>318</v>
       </c>
-      <c r="D107" s="31"/>
+      <c r="D107" s="27"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>319</v>
       </c>
       <c r="C108" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="31"/>
+      <c r="D108" s="27"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>321</v>
       </c>
       <c r="C109" t="s">
         <v>322</v>
       </c>
-      <c r="D109" s="31"/>
+      <c r="D109" s="27"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>323</v>
       </c>
       <c r="C110" t="s">
         <v>324</v>
       </c>
-      <c r="D110" s="31"/>
+      <c r="D110" s="27"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>325</v>
       </c>
       <c r="C111" t="s">
         <v>326</v>
       </c>
-      <c r="D111" s="31"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C112" t="s">
         <v>328</v>
       </c>
-      <c r="D112" s="31"/>
+      <c r="D112" s="27"/>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>329</v>
       </c>
       <c r="C113" t="s">
         <v>330</v>
       </c>
-      <c r="D113" s="31"/>
+      <c r="D113" s="27"/>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C114" t="s">
         <v>332</v>
       </c>
-      <c r="D114" s="31"/>
+      <c r="D114" s="27"/>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>333</v>
       </c>
       <c r="C115" t="s">
         <v>334</v>
       </c>
-      <c r="D115" s="31"/>
+      <c r="D115" s="27"/>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C116" t="s">
         <v>336</v>
       </c>
-      <c r="D116" s="31"/>
+      <c r="D116" s="27"/>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>337</v>
       </c>
       <c r="C117" t="s">
         <v>338</v>
       </c>
-      <c r="D117" s="31"/>
+      <c r="D117" s="27"/>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>339</v>
       </c>
       <c r="C118" t="s">
         <v>340</v>
       </c>
-      <c r="D118" s="31"/>
+      <c r="D118" s="27"/>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C119" t="s">
         <v>342</v>
       </c>
-      <c r="D119" s="31"/>
+      <c r="D119" s="27"/>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>343</v>
       </c>
       <c r="C120" t="s">
         <v>344</v>
       </c>
-      <c r="D120" s="31"/>
+      <c r="D120" s="27"/>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>345</v>
       </c>
       <c r="C121" t="s">
         <v>346</v>
       </c>
-      <c r="D121" s="31"/>
+      <c r="D121" s="27"/>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>347</v>
       </c>
       <c r="C122" t="s">
         <v>348</v>
       </c>
-      <c r="D122" s="31"/>
+      <c r="D122" s="27"/>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>349</v>
       </c>
       <c r="C123" t="s">
         <v>350</v>
       </c>
-      <c r="D123" s="31"/>
+      <c r="D123" s="27"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="31"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="32"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="28"/>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C125" t="s">
         <v>352</v>
       </c>
-      <c r="D125" s="31"/>
+      <c r="D125" s="27"/>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>353</v>
       </c>
       <c r="C126" t="s">
         <v>354</v>
       </c>
-      <c r="D126" s="31"/>
+      <c r="D126" s="27"/>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>355</v>
       </c>
       <c r="C127" t="s">
         <v>356</v>
       </c>
-      <c r="D127" s="31"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>357</v>
       </c>
       <c r="C128" t="s">
         <v>358</v>
       </c>
-      <c r="D128" s="31"/>
+      <c r="D128" s="27"/>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>359</v>
       </c>
       <c r="C129" t="s">
         <v>360</v>
       </c>
-      <c r="D129" s="31"/>
+      <c r="D129" s="27"/>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C130" t="s">
         <v>362</v>
       </c>
-      <c r="D130" s="31"/>
+      <c r="D130" s="27"/>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C131" t="s">
         <v>364</v>
       </c>
-      <c r="D131" s="31"/>
+      <c r="D131" s="27"/>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>365</v>
       </c>
       <c r="C132" t="s">
         <v>366</v>
       </c>
-      <c r="D132" s="31"/>
+      <c r="D132" s="27"/>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>367</v>
       </c>
       <c r="C133" t="s">
         <v>368</v>
       </c>
-      <c r="D133" s="31"/>
+      <c r="D133" s="27"/>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>369</v>
       </c>
       <c r="C134" t="s">
         <v>370</v>
       </c>
-      <c r="D134" s="31"/>
+      <c r="D134" s="27"/>
     </row>
     <row r="135" spans="2:4">
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C135" t="s">
         <v>372</v>
       </c>
-      <c r="D135" s="31"/>
+      <c r="D135" s="27"/>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>373</v>
       </c>
       <c r="C136" t="s">
         <v>374</v>
       </c>
-      <c r="D136" s="31"/>
+      <c r="D136" s="27"/>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>375</v>
       </c>
       <c r="C137" t="s">
         <v>376</v>
       </c>
-      <c r="D137" s="31"/>
+      <c r="D137" s="27"/>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C138" t="s">
         <v>378</v>
       </c>
-      <c r="D138" s="31"/>
+      <c r="D138" s="27"/>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>379</v>
       </c>
       <c r="C139" t="s">
         <v>380</v>
       </c>
-      <c r="D139" s="31"/>
+      <c r="D139" s="27"/>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>381</v>
       </c>
       <c r="C140" t="s">
         <v>382</v>
       </c>
-      <c r="D140" s="31"/>
+      <c r="D140" s="27"/>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C141" t="s">
         <v>384</v>
       </c>
-      <c r="D141" s="31"/>
+      <c r="D141" s="27"/>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>385</v>
       </c>
       <c r="C142" t="s">
         <v>386</v>
       </c>
-      <c r="D142" s="31"/>
+      <c r="D142" s="27"/>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C143" t="s">
         <v>388</v>
       </c>
-      <c r="D143" s="31"/>
+      <c r="D143" s="27"/>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>389</v>
       </c>
       <c r="C144" t="s">
         <v>390</v>
       </c>
-      <c r="D144" s="31"/>
+      <c r="D144" s="27"/>
     </row>
     <row r="145" spans="2:4">
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C145" t="s">
         <v>392</v>
       </c>
-      <c r="D145" s="31"/>
+      <c r="D145" s="27"/>
     </row>
     <row r="146" spans="2:4">
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C146" t="s">
         <v>394</v>
       </c>
-      <c r="D146" s="31"/>
+      <c r="D146" s="27"/>
     </row>
     <row r="147" spans="2:4">
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C147" t="s">
         <v>396</v>
       </c>
-      <c r="D147" s="31"/>
+      <c r="D147" s="27"/>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C148" t="s">
         <v>398</v>
       </c>
-      <c r="D148" s="31"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/项目/中餐厅设备点检/煲仔饭烹饪设备报警信息以及点检V1.1.xlsx
+++ b/项目/中餐厅设备点检/煲仔饭烹饪设备报警信息以及点检V1.1.xlsx
@@ -4366,14 +4366,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4395,60 +4395,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4456,38 +4402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4503,10 +4418,95 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4548,7 +4548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4560,43 +4572,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4614,7 +4620,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4626,37 +4662,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4668,49 +4704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4742,61 +4742,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4831,6 +4778,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4845,143 +4836,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5403,8 +5403,8 @@
   <sheetPr/>
   <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
